--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2514771.494162449</v>
+        <v>-2517507.807183684</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>121.562396330213</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>294.9378128969484</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.1764603832127</v>
+        <v>117.1139748739578</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>141.1658770053583</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>131.5300227317897</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>174.8476533349609</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>243.2334972330578</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>176.9691011094651</v>
+        <v>111.6662948915661</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>273.9949634955919</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>293.2195655431029</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>54.91135984820725</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>190.0340693770297</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>121.6381820844802</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.6210071331219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>144.6100405317611</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>99.98993057842301</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.600826611594925</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317894</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972057</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.010065354184</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096048</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317882</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.3251860078259</v>
+        <v>1559.893700071314</v>
       </c>
       <c r="C2" t="n">
-        <v>533.3251860078259</v>
+        <v>1190.931183130902</v>
       </c>
       <c r="D2" t="n">
-        <v>533.3251860078259</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="E2" t="n">
-        <v>533.3251860078259</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2439.549029076708</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2230.803387682533</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1977.222326946712</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1646.159439603142</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1293.390784333028</v>
+        <v>1933.359458332394</v>
       </c>
       <c r="X2" t="n">
-        <v>919.9250260719477</v>
+        <v>1559.893700071314</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.9250260719477</v>
+        <v>1559.893700071314</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>2362.9309660677</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1841.291750578305</v>
+        <v>777.7639740171257</v>
       </c>
       <c r="C4" t="n">
-        <v>1672.355567650398</v>
+        <v>777.7639740171257</v>
       </c>
       <c r="D4" t="n">
-        <v>1522.238928238063</v>
+        <v>627.64733460479</v>
       </c>
       <c r="E4" t="n">
-        <v>1374.325834655669</v>
+        <v>479.7342410223969</v>
       </c>
       <c r="F4" t="n">
-        <v>1231.734039700762</v>
+        <v>332.8442935244865</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194269</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W4" t="n">
-        <v>2018.237670157308</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X4" t="n">
-        <v>2018.237670157308</v>
+        <v>896.0609183342549</v>
       </c>
       <c r="Y4" t="n">
-        <v>2018.237670157308</v>
+        <v>896.0609183342549</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.923604942954</v>
+        <v>1054.551232880757</v>
       </c>
       <c r="C5" t="n">
-        <v>785.9610880025423</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D5" t="n">
-        <v>785.9610880025423</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E5" t="n">
-        <v>785.9610880025423</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>779.0155872533388</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>363.3108369776277</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.83159218888</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>1545.062936918766</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1545.062936918766</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.923604942954</v>
+        <v>1441.151072944879</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>520.4109910936369</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>815.1145481251085</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.1664670606423</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234359</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028472</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W7" t="n">
-        <v>895.7157139915109</v>
+        <v>955.3272060569564</v>
       </c>
       <c r="X7" t="n">
-        <v>716.9590462041724</v>
+        <v>842.5329687927482</v>
       </c>
       <c r="Y7" t="n">
-        <v>496.1664670606423</v>
+        <v>621.7403896492181</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1121.092420148946</v>
+        <v>740.1619192519183</v>
       </c>
       <c r="C8" t="n">
-        <v>1121.092420148946</v>
+        <v>740.1619192519183</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>740.1619192519183</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>354.3736666536741</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>347.4281659044706</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.831592188879</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1897.831592188879</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y8" t="n">
-        <v>1507.692260213068</v>
+        <v>1126.76175931604</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>827.323049110248</v>
+        <v>388.1694341876314</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4987,25 +4987,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.115628253778</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="W10" t="n">
-        <v>1048.115628253778</v>
+        <v>989.7610553472316</v>
       </c>
       <c r="X10" t="n">
-        <v>1048.115628253778</v>
+        <v>761.7715044492143</v>
       </c>
       <c r="Y10" t="n">
-        <v>827.323049110248</v>
+        <v>569.8178990178711</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1565.519003264322</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1276.101833227361</v>
       </c>
       <c r="X13" t="n">
-        <v>1327.139029956954</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2233.846631820783</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2014.245166843724</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1725.169940187922</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.385923977512</v>
+        <v>1470.485451982035</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433587</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>267.6802639609656</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>267.6802639609656</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>100.4841646758455</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
@@ -6145,28 +6145,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M25" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N25" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
         <v>2596.781734931273</v>
@@ -6178,7 +6178,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594055</v>
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6312,16 +6312,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6418,16 +6418,16 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,10 +6455,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6601,31 +6601,31 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,13 +6634,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6786,13 +6786,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345475</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,13 +7126,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7606,10 +7606,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7734,13 +7734,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.3555089013359</v>
+        <v>60.35797727397565</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>98.24448441976858</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>138.9393975111061</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8702,10 +8702,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>-3.565849246091815e-13</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.889819068581389</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>54.30315582046461</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>62.71800530797945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.255171017572937</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>130.4994612393478</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.96364621897284</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>36.41624546988348</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>152.147712745405</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>133.693886234629</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -26320,10 +26320,10 @@
         <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
+        <v>20178.66499225016</v>
+      </c>
+      <c r="F2" t="n">
         <v>20178.66499225015</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20178.66499225016</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225015</v>
@@ -26338,19 +26338,19 @@
         <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26399,10 +26399,10 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28315.87139004277</v>
+        <v>28315.87139004278</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731942</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="I4" t="n">
+        <v>16108.17168982545</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16108.17168982548</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16108.17168982552</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16108.17168982545</v>
+      </c>
+      <c r="M4" t="n">
         <v>16108.17168982544</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>16108.17168982544</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16108.17168982544</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16108.17168982544</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16108.17168982545</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16108.17168982546</v>
       </c>
       <c r="O4" t="n">
         <v>16108.17168982545</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982544</v>
       </c>
     </row>
     <row r="5">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1220122.351079446</v>
+        <v>-1220586.64787147</v>
       </c>
       <c r="C6" t="n">
-        <v>-206729.7284551013</v>
+        <v>-206729.7284551014</v>
       </c>
       <c r="D6" t="n">
-        <v>-206729.7284551013</v>
+        <v>-206729.7284551014</v>
       </c>
       <c r="E6" t="n">
-        <v>-596546.6188829349</v>
+        <v>-596581.3568083706</v>
       </c>
       <c r="F6" t="n">
-        <v>-89061.17725838893</v>
+        <v>-89095.91518382463</v>
       </c>
       <c r="G6" t="n">
-        <v>-89061.17725838895</v>
+        <v>-89095.91518382468</v>
       </c>
       <c r="H6" t="n">
-        <v>-89061.17725838893</v>
+        <v>-89095.91518382466</v>
       </c>
       <c r="I6" t="n">
         <v>-118173.9612907655</v>
       </c>
       <c r="J6" t="n">
-        <v>-266351.4211071163</v>
+        <v>-266351.4211071164</v>
       </c>
       <c r="K6" t="n">
+        <v>-98746.24329713383</v>
+      </c>
+      <c r="L6" t="n">
         <v>-98746.24329713375</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-98746.24329713374</v>
       </c>
       <c r="M6" t="n">
         <v>-231353.5370260605</v>
@@ -26558,7 +26558,7 @@
         <v>-118173.9612907655</v>
       </c>
       <c r="O6" t="n">
-        <v>-98746.24329713375</v>
+        <v>-98746.24329713384</v>
       </c>
       <c r="P6" t="n">
         <v>-98746.24329713374</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203977</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="J2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,16 +26920,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.592326932761353e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.655519798724583</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>34.77657731301449</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>190.4252384360466</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>57.78505532934756</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>48.74055427957202</v>
+        <v>114.0433604974711</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>80.68807812509101</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>118.3281372298511</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.3354612504206</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>28.55058397506511</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="29">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286967</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O27" t="n">
-        <v>604.7968300725072</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727256</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33971,31 +33971,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>729.0844763571695</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.8362312321904</v>
+        <v>176.8386996048302</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>284.8319806632534</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>388.6189266346383</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066783</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O27" t="n">
-        <v>462.2005856280628</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507074</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36996,13 +36996,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,31 +37619,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>586.9504424351511</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
